--- a/CAHybridFramework/Excel/Testdata.xlsx
+++ b/CAHybridFramework/Excel/Testdata.xlsx
@@ -10,6 +10,7 @@
     <sheet name="FirstSheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
